--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{26E3A082-4469-E740-A5AB-964E0AAD5791}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31540" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31540" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1751,7 +1751,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1929,8 +1929,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,8 +2203,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2467,6 +2721,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2474,7 +3054,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2607,52 +3187,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3129,7 +3757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF137"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5116,7 +5744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -10371,7 +10999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DCB0A5-CA02-0D4C-8500-8B9E4B1BC25C}">
   <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -50,7 +50,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1744,6 +1744,9 @@
   </si>
   <si>
     <t>activity name here with spaces only</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1754,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2030,8 +2033,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2356,8 +2561,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3047,6 +3558,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3054,7 +4217,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3235,52 +4398,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3755,7 +5014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5465,7 +6724,7 @@
         <v>266</v>
       </c>
       <c r="Z89" t="s">
-        <v>196</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90">
@@ -5473,7 +6732,7 @@
         <v>283</v>
       </c>
       <c r="Z90" t="s">
-        <v>445</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91">
@@ -5481,7 +6740,7 @@
         <v>267</v>
       </c>
       <c r="Z91" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92">
@@ -5489,7 +6748,7 @@
         <v>268</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -5497,7 +6756,7 @@
         <v>300</v>
       </c>
       <c r="Z93" t="s">
-        <v>536</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -5505,7 +6764,7 @@
         <v>306</v>
       </c>
       <c r="Z94" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95">
@@ -5513,7 +6772,7 @@
         <v>290</v>
       </c>
       <c r="Z95" t="s">
-        <v>211</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96">
@@ -5521,7 +6780,7 @@
         <v>335</v>
       </c>
       <c r="Z96" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97">
@@ -5529,7 +6788,7 @@
         <v>272</v>
       </c>
       <c r="Z97" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
@@ -5537,201 +6796,206 @@
         <v>273</v>
       </c>
       <c r="Z98" t="s">
-        <v>433</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>434</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>200</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>489</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>145</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>514</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>374</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>435</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>159</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>534</v>
+        <v>159</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>160</v>
+        <v>534</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1754,7 +1754,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2235,8 +2235,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2867,8 +2968,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4210,6 +4464,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4217,7 +4797,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4494,52 +5074,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -28,7 +28,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -41,7 +41,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -50,9 +50,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4086" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1747,6 +1747,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1784,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2336,8 +2366,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3121,8 +3252,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4790,6 +5074,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4797,7 +5407,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5122,52 +5732,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5642,7 +6300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6074,7 +6732,7 @@
         <v>170</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>567</v>
       </c>
       <c r="AC5" t="s">
         <v>181</v>
@@ -6145,7 +6803,7 @@
         <v>436</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
         <v>182</v>
@@ -6207,7 +6865,7 @@
         <v>437</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
         <v>183</v>
@@ -6263,7 +6921,7 @@
         <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
         <v>184</v>
@@ -6315,6 +6973,9 @@
       <c r="Z9" t="s">
         <v>205</v>
       </c>
+      <c r="AB9" t="s">
+        <v>178</v>
+      </c>
       <c r="AC9" t="s">
         <v>185</v>
       </c>
@@ -6333,7 +6994,7 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>443</v>
+        <v>559</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -6355,6 +7016,9 @@
       </c>
       <c r="Z10" t="s">
         <v>252</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>568</v>
       </c>
       <c r="AC10" t="s">
         <v>186</v>
@@ -6374,7 +7038,7 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -6412,7 +7076,7 @@
         <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L12" t="s">
         <v>477</v>
@@ -6450,7 +7114,7 @@
         <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L13" t="s">
         <v>381</v>
@@ -6462,7 +7126,7 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="Z13" t="s">
         <v>321</v>
@@ -6485,7 +7149,7 @@
         <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -6497,7 +7161,7 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Z14" t="s">
         <v>100</v>
@@ -6519,6 +7183,9 @@
       <c r="H15" t="s">
         <v>259</v>
       </c>
+      <c r="I15" t="s">
+        <v>320</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -6529,10 +7196,10 @@
         <v>482</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z15" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="AC15" t="s">
         <v>190</v>
@@ -6561,10 +7228,10 @@
         <v>483</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AC16" t="s">
         <v>191</v>
@@ -6589,8 +7256,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>248</v>
+      </c>
       <c r="Z17" t="s">
-        <v>484</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s">
         <v>458</v>
@@ -6616,7 +7286,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>484</v>
       </c>
       <c r="AE18" t="s">
         <v>466</v>
@@ -6636,7 +7306,7 @@
         <v>454</v>
       </c>
       <c r="Z19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
         <v>495</v>
@@ -6656,7 +7326,7 @@
         <v>81</v>
       </c>
       <c r="Z20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE20" t="s">
         <v>496</v>
@@ -6676,7 +7346,7 @@
         <v>82</v>
       </c>
       <c r="Z21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE21" t="s">
         <v>497</v>
@@ -6696,7 +7366,7 @@
         <v>544</v>
       </c>
       <c r="Z22" t="s">
-        <v>485</v>
+        <v>105</v>
       </c>
       <c r="AE22" t="s">
         <v>231</v>
@@ -6716,7 +7386,7 @@
         <v>461</v>
       </c>
       <c r="Z23" t="s">
-        <v>106</v>
+        <v>485</v>
       </c>
       <c r="AE23" t="s">
         <v>522</v>
@@ -6736,7 +7406,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>532</v>
+        <v>106</v>
       </c>
       <c r="AE24" t="s">
         <v>523</v>
@@ -6756,7 +7426,7 @@
         <v>383</v>
       </c>
       <c r="Z25" t="s">
-        <v>107</v>
+        <v>532</v>
       </c>
       <c r="AE25" t="s">
         <v>524</v>
@@ -6776,7 +7446,7 @@
         <v>515</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE26" t="s">
         <v>232</v>
@@ -6796,7 +7466,7 @@
         <v>83</v>
       </c>
       <c r="Z27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE27" t="s">
         <v>233</v>
@@ -6816,7 +7486,7 @@
         <v>425</v>
       </c>
       <c r="Z28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -6833,7 +7503,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -6850,7 +7520,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31">
@@ -6864,7 +7534,7 @@
         <v>212</v>
       </c>
       <c r="Z31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
@@ -6875,7 +7545,7 @@
         <v>270</v>
       </c>
       <c r="Z32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -6886,7 +7556,7 @@
         <v>280</v>
       </c>
       <c r="Z33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -6897,7 +7567,7 @@
         <v>500</v>
       </c>
       <c r="Z34" t="s">
-        <v>533</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -6908,7 +7578,7 @@
         <v>255</v>
       </c>
       <c r="Z35" t="s">
-        <v>115</v>
+        <v>533</v>
       </c>
     </row>
     <row r="36">
@@ -6919,7 +7589,7 @@
         <v>325</v>
       </c>
       <c r="Z36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -6930,7 +7600,7 @@
         <v>302</v>
       </c>
       <c r="Z37" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -6941,7 +7611,7 @@
         <v>256</v>
       </c>
       <c r="Z38" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -6952,7 +7622,7 @@
         <v>303</v>
       </c>
       <c r="Z39" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -6960,7 +7630,7 @@
         <v>262</v>
       </c>
       <c r="Z40" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
@@ -6968,7 +7638,7 @@
         <v>76</v>
       </c>
       <c r="Z41" t="s">
-        <v>543</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42">
@@ -6976,7 +7646,7 @@
         <v>208</v>
       </c>
       <c r="Z42" t="s">
-        <v>384</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43">
@@ -6984,7 +7654,7 @@
         <v>529</v>
       </c>
       <c r="Z43" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
@@ -6992,7 +7662,7 @@
         <v>284</v>
       </c>
       <c r="Z44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -7000,7 +7670,7 @@
         <v>295</v>
       </c>
       <c r="Z45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -7008,7 +7678,7 @@
         <v>296</v>
       </c>
       <c r="Z46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -7016,7 +7686,7 @@
         <v>338</v>
       </c>
       <c r="Z47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -7024,7 +7694,7 @@
         <v>337</v>
       </c>
       <c r="Z48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -7032,7 +7702,7 @@
         <v>207</v>
       </c>
       <c r="Z49" t="s">
-        <v>430</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -7040,7 +7710,7 @@
         <v>315</v>
       </c>
       <c r="Z50" t="s">
-        <v>209</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51">
@@ -7048,7 +7718,7 @@
         <v>334</v>
       </c>
       <c r="Z51" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -7056,7 +7726,7 @@
         <v>360</v>
       </c>
       <c r="Z52" t="s">
-        <v>526</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -7064,7 +7734,7 @@
         <v>297</v>
       </c>
       <c r="Z53" t="s">
-        <v>124</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54">
@@ -7072,7 +7742,7 @@
         <v>348</v>
       </c>
       <c r="Z54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -7080,7 +7750,7 @@
         <v>326</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -7088,7 +7758,7 @@
         <v>263</v>
       </c>
       <c r="Z56" t="s">
-        <v>486</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -7096,7 +7766,7 @@
         <v>287</v>
       </c>
       <c r="Z57" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58">
@@ -7104,7 +7774,7 @@
         <v>288</v>
       </c>
       <c r="Z58" t="s">
-        <v>127</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59">
@@ -7112,7 +7782,7 @@
         <v>530</v>
       </c>
       <c r="Z59" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -7120,7 +7790,7 @@
         <v>289</v>
       </c>
       <c r="Z60" t="s">
-        <v>456</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61">
@@ -7128,7 +7798,7 @@
         <v>298</v>
       </c>
       <c r="Z61" t="s">
-        <v>128</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62">
@@ -7136,7 +7806,7 @@
         <v>307</v>
       </c>
       <c r="Z62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -7144,7 +7814,7 @@
         <v>332</v>
       </c>
       <c r="Z63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -7152,7 +7822,7 @@
         <v>304</v>
       </c>
       <c r="Z64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -7160,7 +7830,7 @@
         <v>305</v>
       </c>
       <c r="Z65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -7168,7 +7838,7 @@
         <v>361</v>
       </c>
       <c r="Z66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -7176,7 +7846,7 @@
         <v>362</v>
       </c>
       <c r="Z67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -7184,7 +7854,7 @@
         <v>340</v>
       </c>
       <c r="Z68" t="s">
-        <v>431</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -7192,7 +7862,7 @@
         <v>308</v>
       </c>
       <c r="Z69" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70">
@@ -7200,7 +7870,7 @@
         <v>264</v>
       </c>
       <c r="Z70" t="s">
-        <v>210</v>
+        <v>464</v>
       </c>
     </row>
     <row r="71">
@@ -7208,7 +7878,7 @@
         <v>516</v>
       </c>
       <c r="Z71" t="s">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72">
@@ -7216,7 +7886,7 @@
         <v>309</v>
       </c>
       <c r="Z72" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73">
@@ -7224,7 +7894,7 @@
         <v>401</v>
       </c>
       <c r="Z73" t="s">
-        <v>135</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74">
@@ -7232,7 +7902,7 @@
         <v>299</v>
       </c>
       <c r="Z74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -7240,7 +7910,7 @@
         <v>402</v>
       </c>
       <c r="Z75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -7248,7 +7918,7 @@
         <v>257</v>
       </c>
       <c r="Z76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -7256,7 +7926,7 @@
         <v>501</v>
       </c>
       <c r="Z77" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -7264,7 +7934,7 @@
         <v>339</v>
       </c>
       <c r="Z78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -7272,7 +7942,7 @@
         <v>275</v>
       </c>
       <c r="Z79" t="s">
-        <v>444</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -7280,7 +7950,7 @@
         <v>281</v>
       </c>
       <c r="Z80" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81">
@@ -7288,7 +7958,7 @@
         <v>286</v>
       </c>
       <c r="Z81" t="s">
-        <v>139</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82">
@@ -7296,7 +7966,7 @@
         <v>420</v>
       </c>
       <c r="Z82" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83">
@@ -7304,7 +7974,7 @@
         <v>327</v>
       </c>
       <c r="Z83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -7312,7 +7982,7 @@
         <v>265</v>
       </c>
       <c r="Z84" t="s">
-        <v>487</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -7320,7 +7990,7 @@
         <v>276</v>
       </c>
       <c r="Z85" t="s">
-        <v>142</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86">
@@ -7328,7 +7998,7 @@
         <v>282</v>
       </c>
       <c r="Z86" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87">
@@ -7336,7 +8006,7 @@
         <v>271</v>
       </c>
       <c r="Z87" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -7344,7 +8014,7 @@
         <v>518</v>
       </c>
       <c r="Z88" t="s">
-        <v>488</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89">
@@ -7352,7 +8022,7 @@
         <v>266</v>
       </c>
       <c r="Z89" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90">
@@ -7360,7 +8030,7 @@
         <v>283</v>
       </c>
       <c r="Z90" t="s">
-        <v>196</v>
+        <v>558</v>
       </c>
     </row>
     <row r="91">
@@ -7368,7 +8038,7 @@
         <v>267</v>
       </c>
       <c r="Z91" t="s">
-        <v>445</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92">
@@ -7376,7 +8046,7 @@
         <v>268</v>
       </c>
       <c r="Z92" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93">
@@ -7384,7 +8054,7 @@
         <v>300</v>
       </c>
       <c r="Z93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
@@ -7392,7 +8062,7 @@
         <v>306</v>
       </c>
       <c r="Z94" t="s">
-        <v>536</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -7400,7 +8070,7 @@
         <v>290</v>
       </c>
       <c r="Z95" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96">
@@ -7408,7 +8078,7 @@
         <v>335</v>
       </c>
       <c r="Z96" t="s">
-        <v>211</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97">
@@ -7416,7 +8086,7 @@
         <v>272</v>
       </c>
       <c r="Z97" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98">
@@ -7424,206 +8094,236 @@
         <v>273</v>
       </c>
       <c r="Z98" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>433</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>434</v>
+        <v>548</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>200</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>540</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>145</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>374</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>435</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>159</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>534</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>162</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>163</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -28,7 +28,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4086" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="571">
   <si>
     <t>description</t>
   </si>
@@ -1777,6 +1777,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1790,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2467,8 +2473,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3405,8 +3512,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5400,6 +5660,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5407,7 +5993,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5780,52 +6366,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6994,7 +7628,7 @@
         <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="L10" t="s">
         <v>78</v>
@@ -7038,7 +7672,7 @@
         <v>347</v>
       </c>
       <c r="I11" t="s">
-        <v>443</v>
+        <v>570</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -7076,7 +7710,7 @@
         <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>317</v>
+        <v>443</v>
       </c>
       <c r="L12" t="s">
         <v>477</v>
@@ -7114,7 +7748,7 @@
         <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L13" t="s">
         <v>381</v>
@@ -7149,7 +7783,7 @@
         <v>311</v>
       </c>
       <c r="I14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -7184,7 +7818,7 @@
         <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -7217,6 +7851,9 @@
       </c>
       <c r="H16" t="s">
         <v>260</v>
+      </c>
+      <c r="I16" t="s">
+        <v>320</v>
       </c>
       <c r="L16" t="s">
         <v>478</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -30,7 +30,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -48,14 +48,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5833" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1783,6 +1784,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1818,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2574,8 +2602,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3665,8 +3895,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -5986,6 +6522,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5993,7 +7181,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6414,52 +7602,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6934,7 +8218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7022,21 +8306,24 @@
         <v>388</v>
       </c>
       <c r="Z1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>405</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7072,7 +8359,7 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>452</v>
+        <v>578</v>
       </c>
       <c r="L2" t="s">
         <v>310</v>
@@ -7117,21 +8404,24 @@
         <v>398</v>
       </c>
       <c r="Z2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>167</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>179</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>423</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -7203,21 +8493,24 @@
         <v>399</v>
       </c>
       <c r="Z3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>173</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>356</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>180</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7286,21 +8579,24 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA4" t="s">
         <v>545</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>169</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>180</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>415</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7360,21 +8656,24 @@
         <v>351</v>
       </c>
       <c r="Z5" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA5" t="s">
         <v>542</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>170</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>567</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>181</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>416</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7404,7 +8703,7 @@
         <v>549</v>
       </c>
       <c r="K6" t="s">
-        <v>343</v>
+        <v>579</v>
       </c>
       <c r="L6" t="s">
         <v>453</v>
@@ -7431,21 +8730,24 @@
         <v>353</v>
       </c>
       <c r="Z6" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA6" t="s">
         <v>96</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>436</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>182</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>417</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7466,7 +8768,7 @@
         <v>438</v>
       </c>
       <c r="K7" t="s">
-        <v>525</v>
+        <v>343</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -7492,22 +8794,22 @@
       <c r="X7" t="s">
         <v>352</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>437</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>183</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>418</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>519</v>
       </c>
     </row>
@@ -7527,6 +8829,9 @@
       <c r="I8" t="s">
         <v>323</v>
       </c>
+      <c r="K8" t="s">
+        <v>525</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -7548,22 +8853,22 @@
       <c r="X8" t="s">
         <v>354</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>98</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>184</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>419</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7604,16 +8909,16 @@
       <c r="X9" t="s">
         <v>355</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>521</v>
       </c>
     </row>
@@ -7648,16 +8953,16 @@
       <c r="U10" t="s">
         <v>397</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>252</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>568</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7689,13 +8994,13 @@
       <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>253</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>254</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7727,13 +9032,13 @@
       <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7762,13 +9067,13 @@
       <c r="S13" t="s">
         <v>560</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>321</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7797,13 +9102,13 @@
       <c r="S14" t="s">
         <v>250</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7832,13 +9137,13 @@
       <c r="S15" t="s">
         <v>246</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>561</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>492</v>
       </c>
     </row>
@@ -7867,13 +9172,13 @@
       <c r="S16" t="s">
         <v>247</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>101</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -7896,13 +9201,13 @@
       <c r="S17" t="s">
         <v>248</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>73</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>458</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -7922,10 +9227,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>484</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7942,10 +9247,10 @@
       <c r="L19" t="s">
         <v>454</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>102</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>495</v>
       </c>
     </row>
@@ -7962,10 +9267,10 @@
       <c r="L20" t="s">
         <v>81</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7982,10 +9287,10 @@
       <c r="L21" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>497</v>
       </c>
     </row>
@@ -8002,10 +9307,10 @@
       <c r="L22" t="s">
         <v>544</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8022,10 +9327,10 @@
       <c r="L23" t="s">
         <v>461</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>485</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -8042,10 +9347,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>106</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>523</v>
       </c>
     </row>
@@ -8062,16 +9367,16 @@
       <c r="L25" t="s">
         <v>383</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>532</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>571</v>
       </c>
       <c r="F26" t="s">
         <v>440</v>
@@ -8082,16 +9387,16 @@
       <c r="L26" t="s">
         <v>515</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>107</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
         <v>221</v>
@@ -8102,16 +9407,16 @@
       <c r="L27" t="s">
         <v>83</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>108</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>222</v>
@@ -8122,13 +9427,13 @@
       <c r="L28" t="s">
         <v>425</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
         <v>459</v>
@@ -8139,13 +9444,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
         <v>460</v>
@@ -8156,13 +9461,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="F31" t="s">
         <v>407</v>
@@ -8170,18 +9475,21 @@
       <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8192,7 +9500,7 @@
       <c r="H33" t="s">
         <v>280</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8203,7 +9511,7 @@
       <c r="H34" t="s">
         <v>500</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8214,7 +9522,7 @@
       <c r="H35" t="s">
         <v>255</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>533</v>
       </c>
     </row>
@@ -8225,7 +9533,7 @@
       <c r="H36" t="s">
         <v>325</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8236,7 +9544,7 @@
       <c r="H37" t="s">
         <v>302</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8247,7 +9555,7 @@
       <c r="H38" t="s">
         <v>256</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8258,7 +9566,7 @@
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8266,7 +9574,7 @@
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>333</v>
       </c>
     </row>
@@ -8274,7 +9582,7 @@
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>429</v>
       </c>
     </row>
@@ -8282,7 +9590,7 @@
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>543</v>
       </c>
     </row>
@@ -8290,7 +9598,7 @@
       <c r="H43" t="s">
         <v>529</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8298,7 +9606,7 @@
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8306,7 +9614,7 @@
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8314,7 +9622,7 @@
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8322,7 +9630,7 @@
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8330,7 +9638,7 @@
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8338,7 +9646,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -8346,7 +9654,7 @@
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8354,7 +9662,7 @@
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>209</v>
       </c>
     </row>
@@ -8362,7 +9670,7 @@
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>75</v>
       </c>
     </row>
@@ -8370,7 +9678,7 @@
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8378,7 +9686,7 @@
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8386,7 +9694,7 @@
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8394,7 +9702,7 @@
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8402,7 +9710,7 @@
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>486</v>
       </c>
     </row>
@@ -8410,7 +9718,7 @@
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>455</v>
       </c>
     </row>
@@ -8418,7 +9726,7 @@
       <c r="H59" t="s">
         <v>530</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>127</v>
       </c>
     </row>
@@ -8426,7 +9734,7 @@
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8434,7 +9742,7 @@
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8442,7 +9750,7 @@
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8450,7 +9758,7 @@
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8458,7 +9766,7 @@
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8466,7 +9774,7 @@
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -8474,7 +9782,7 @@
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8482,7 +9790,7 @@
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -8490,7 +9798,7 @@
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8498,7 +9806,7 @@
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8506,7 +9814,7 @@
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8514,7 +9822,7 @@
       <c r="H71" t="s">
         <v>516</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>210</v>
       </c>
     </row>
@@ -8522,7 +9830,7 @@
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8530,7 +9838,7 @@
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8538,7 +9846,7 @@
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8546,7 +9854,7 @@
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -8554,7 +9862,7 @@
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -8562,7 +9870,7 @@
       <c r="H77" t="s">
         <v>501</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8570,7 +9878,7 @@
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8578,7 +9886,7 @@
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>194</v>
       </c>
     </row>
@@ -8586,7 +9894,7 @@
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8594,7 +9902,7 @@
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8602,7 +9910,7 @@
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -8610,7 +9918,7 @@
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8618,7 +9926,7 @@
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8626,7 +9934,7 @@
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>487</v>
       </c>
     </row>
@@ -8634,7 +9942,7 @@
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
@@ -8642,7 +9950,7 @@
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>143</v>
       </c>
     </row>
@@ -8650,7 +9958,7 @@
       <c r="H88" t="s">
         <v>518</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8658,7 +9966,7 @@
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>488</v>
       </c>
     </row>
@@ -8666,7 +9974,7 @@
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>558</v>
       </c>
     </row>
@@ -8674,7 +9982,7 @@
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8682,7 +9990,7 @@
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8690,7 +9998,7 @@
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8698,7 +10006,7 @@
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>198</v>
       </c>
     </row>
@@ -8706,7 +10014,7 @@
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>536</v>
       </c>
     </row>
@@ -8714,7 +10022,7 @@
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>537</v>
       </c>
     </row>
@@ -8722,7 +10030,7 @@
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8730,237 +10038,237 @@
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -34,7 +34,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -42,7 +42,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -50,13 +50,14 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5833" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6420" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1811,6 +1812,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1849,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2804,8 +2835,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4201,8 +4333,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -7174,6 +7459,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7181,7 +7792,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7698,52 +8309,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8218,7 +8877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8306,7 +8965,7 @@
         <v>388</v>
       </c>
       <c r="Z1" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="AA1" t="s">
         <v>52</v>
@@ -8386,7 +9045,7 @@
         <v>249</v>
       </c>
       <c r="T2" t="s">
-        <v>213</v>
+        <v>582</v>
       </c>
       <c r="U2" t="s">
         <v>389</v>
@@ -8404,7 +9063,7 @@
         <v>398</v>
       </c>
       <c r="Z2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="AA2" t="s">
         <v>94</v>
@@ -8478,7 +9137,7 @@
         <v>236</v>
       </c>
       <c r="T3" t="s">
-        <v>214</v>
+        <v>583</v>
       </c>
       <c r="U3" t="s">
         <v>390</v>
@@ -8493,7 +9152,7 @@
         <v>399</v>
       </c>
       <c r="Z3" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="AA3" t="s">
         <v>95</v>
@@ -8564,7 +9223,7 @@
         <v>237</v>
       </c>
       <c r="T4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="U4" t="s">
         <v>391</v>
@@ -8579,7 +9238,7 @@
         <v>400</v>
       </c>
       <c r="Z4" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="AA4" t="s">
         <v>545</v>
@@ -8644,7 +9303,7 @@
         <v>238</v>
       </c>
       <c r="T5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U5" t="s">
         <v>392</v>
@@ -8654,9 +9313,6 @@
       </c>
       <c r="X5" t="s">
         <v>351</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>576</v>
       </c>
       <c r="AA5" t="s">
         <v>542</v>
@@ -8721,16 +9377,13 @@
         <v>239</v>
       </c>
       <c r="T6" t="s">
-        <v>382</v>
+        <v>215</v>
       </c>
       <c r="U6" t="s">
         <v>393</v>
       </c>
       <c r="X6" t="s">
         <v>353</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>577</v>
       </c>
       <c r="AA6" t="s">
         <v>96</v>
@@ -8786,7 +9439,7 @@
         <v>240</v>
       </c>
       <c r="T7" t="s">
-        <v>409</v>
+        <v>216</v>
       </c>
       <c r="U7" t="s">
         <v>394</v>
@@ -8847,6 +9500,9 @@
       <c r="S8" t="s">
         <v>241</v>
       </c>
+      <c r="T8" t="s">
+        <v>382</v>
+      </c>
       <c r="U8" t="s">
         <v>395</v>
       </c>
@@ -8903,6 +9559,9 @@
       <c r="S9" t="s">
         <v>242</v>
       </c>
+      <c r="T9" t="s">
+        <v>409</v>
+      </c>
       <c r="U9" t="s">
         <v>396</v>
       </c>
@@ -9024,7 +9683,7 @@
         <v>527</v>
       </c>
       <c r="O12" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -9061,6 +9720,9 @@
       <c r="N13" t="s">
         <v>427</v>
       </c>
+      <c r="O13" t="s">
+        <v>512</v>
+      </c>
       <c r="R13" t="s">
         <v>92</v>
       </c>
@@ -9138,7 +9800,7 @@
         <v>246</v>
       </c>
       <c r="AA15" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="AD15" t="s">
         <v>190</v>
@@ -9173,7 +9835,7 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>101</v>
+        <v>561</v>
       </c>
       <c r="AD16" t="s">
         <v>191</v>
@@ -9202,7 +9864,7 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s">
         <v>458</v>
@@ -9228,7 +9890,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>484</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s">
         <v>466</v>
@@ -9248,7 +9910,7 @@
         <v>454</v>
       </c>
       <c r="AA19" t="s">
-        <v>102</v>
+        <v>484</v>
       </c>
       <c r="AF19" t="s">
         <v>495</v>
@@ -9268,7 +9930,7 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s">
         <v>496</v>
@@ -9288,7 +9950,7 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF21" t="s">
         <v>497</v>
@@ -9308,7 +9970,7 @@
         <v>544</v>
       </c>
       <c r="AA22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s">
         <v>231</v>
@@ -9328,7 +9990,7 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
-        <v>485</v>
+        <v>105</v>
       </c>
       <c r="AF23" t="s">
         <v>522</v>
@@ -9348,7 +10010,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>106</v>
+        <v>485</v>
       </c>
       <c r="AF24" t="s">
         <v>523</v>
@@ -9368,7 +10030,7 @@
         <v>383</v>
       </c>
       <c r="AA25" t="s">
-        <v>532</v>
+        <v>106</v>
       </c>
       <c r="AF25" t="s">
         <v>524</v>
@@ -9376,7 +10038,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="F26" t="s">
         <v>440</v>
@@ -9388,7 +10050,7 @@
         <v>515</v>
       </c>
       <c r="AA26" t="s">
-        <v>107</v>
+        <v>532</v>
       </c>
       <c r="AF26" t="s">
         <v>232</v>
@@ -9408,7 +10070,7 @@
         <v>83</v>
       </c>
       <c r="AA27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF27" t="s">
         <v>233</v>
@@ -9428,7 +10090,7 @@
         <v>425</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -9445,7 +10107,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -9462,7 +10124,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
@@ -9476,7 +10138,7 @@
         <v>212</v>
       </c>
       <c r="AA31" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
@@ -9490,7 +10152,7 @@
         <v>270</v>
       </c>
       <c r="AA32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -9501,7 +10163,7 @@
         <v>280</v>
       </c>
       <c r="AA33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -9512,7 +10174,7 @@
         <v>500</v>
       </c>
       <c r="AA34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -9523,7 +10185,7 @@
         <v>255</v>
       </c>
       <c r="AA35" t="s">
-        <v>533</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -9534,7 +10196,7 @@
         <v>325</v>
       </c>
       <c r="AA36" t="s">
-        <v>115</v>
+        <v>533</v>
       </c>
     </row>
     <row r="37">
@@ -9545,7 +10207,7 @@
         <v>302</v>
       </c>
       <c r="AA37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -9556,7 +10218,7 @@
         <v>256</v>
       </c>
       <c r="AA38" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
@@ -9567,7 +10229,7 @@
         <v>303</v>
       </c>
       <c r="AA39" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40">
@@ -9575,7 +10237,7 @@
         <v>262</v>
       </c>
       <c r="AA40" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -9583,7 +10245,7 @@
         <v>76</v>
       </c>
       <c r="AA41" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42">
@@ -9591,7 +10253,7 @@
         <v>208</v>
       </c>
       <c r="AA42" t="s">
-        <v>543</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43">
@@ -9599,7 +10261,7 @@
         <v>529</v>
       </c>
       <c r="AA43" t="s">
-        <v>384</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44">
@@ -9607,7 +10269,7 @@
         <v>284</v>
       </c>
       <c r="AA44" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45">
@@ -9615,7 +10277,7 @@
         <v>295</v>
       </c>
       <c r="AA45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -9623,7 +10285,7 @@
         <v>296</v>
       </c>
       <c r="AA46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
@@ -9631,7 +10293,7 @@
         <v>338</v>
       </c>
       <c r="AA47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -9639,7 +10301,7 @@
         <v>337</v>
       </c>
       <c r="AA48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -9647,7 +10309,7 @@
         <v>207</v>
       </c>
       <c r="AA49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -9655,7 +10317,7 @@
         <v>315</v>
       </c>
       <c r="AA50" t="s">
-        <v>430</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
@@ -9663,7 +10325,7 @@
         <v>334</v>
       </c>
       <c r="AA51" t="s">
-        <v>209</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52">
@@ -9671,7 +10333,7 @@
         <v>360</v>
       </c>
       <c r="AA52" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
@@ -9679,7 +10341,7 @@
         <v>297</v>
       </c>
       <c r="AA53" t="s">
-        <v>526</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -9687,7 +10349,7 @@
         <v>348</v>
       </c>
       <c r="AA54" t="s">
-        <v>124</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55">
@@ -9695,7 +10357,7 @@
         <v>326</v>
       </c>
       <c r="AA55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
@@ -9703,7 +10365,7 @@
         <v>263</v>
       </c>
       <c r="AA56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
@@ -9711,7 +10373,7 @@
         <v>287</v>
       </c>
       <c r="AA57" t="s">
-        <v>486</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -9719,7 +10381,7 @@
         <v>288</v>
       </c>
       <c r="AA58" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59">
@@ -9727,7 +10389,7 @@
         <v>530</v>
       </c>
       <c r="AA59" t="s">
-        <v>127</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60">
@@ -9735,7 +10397,7 @@
         <v>289</v>
       </c>
       <c r="AA60" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -9743,7 +10405,7 @@
         <v>298</v>
       </c>
       <c r="AA61" t="s">
-        <v>456</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62">
@@ -9751,7 +10413,7 @@
         <v>307</v>
       </c>
       <c r="AA62" t="s">
-        <v>128</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63">
@@ -9759,7 +10421,7 @@
         <v>332</v>
       </c>
       <c r="AA63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
@@ -9767,7 +10429,7 @@
         <v>304</v>
       </c>
       <c r="AA64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -9775,7 +10437,7 @@
         <v>305</v>
       </c>
       <c r="AA65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
@@ -9783,7 +10445,7 @@
         <v>361</v>
       </c>
       <c r="AA66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
@@ -9791,7 +10453,7 @@
         <v>362</v>
       </c>
       <c r="AA67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -9799,7 +10461,7 @@
         <v>340</v>
       </c>
       <c r="AA68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
@@ -9807,7 +10469,7 @@
         <v>308</v>
       </c>
       <c r="AA69" t="s">
-        <v>431</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -9815,7 +10477,7 @@
         <v>264</v>
       </c>
       <c r="AA70" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71">
@@ -9823,7 +10485,7 @@
         <v>516</v>
       </c>
       <c r="AA71" t="s">
-        <v>210</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72">
@@ -9831,7 +10493,7 @@
         <v>309</v>
       </c>
       <c r="AA72" t="s">
-        <v>380</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73">
@@ -9839,7 +10501,7 @@
         <v>401</v>
       </c>
       <c r="AA73" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74">
@@ -9847,7 +10509,7 @@
         <v>299</v>
       </c>
       <c r="AA74" t="s">
-        <v>135</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75">
@@ -9855,7 +10517,7 @@
         <v>402</v>
       </c>
       <c r="AA75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76">
@@ -9863,7 +10525,7 @@
         <v>257</v>
       </c>
       <c r="AA76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
@@ -9871,7 +10533,7 @@
         <v>501</v>
       </c>
       <c r="AA77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
@@ -9879,7 +10541,7 @@
         <v>339</v>
       </c>
       <c r="AA78" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
@@ -9887,7 +10549,7 @@
         <v>275</v>
       </c>
       <c r="AA79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80">
@@ -9895,7 +10557,7 @@
         <v>281</v>
       </c>
       <c r="AA80" t="s">
-        <v>444</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -9903,7 +10565,7 @@
         <v>286</v>
       </c>
       <c r="AA81" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82">
@@ -9911,7 +10573,7 @@
         <v>420</v>
       </c>
       <c r="AA82" t="s">
-        <v>139</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83">
@@ -9919,7 +10581,7 @@
         <v>327</v>
       </c>
       <c r="AA83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84">
@@ -9927,7 +10589,7 @@
         <v>265</v>
       </c>
       <c r="AA84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
@@ -9935,7 +10597,7 @@
         <v>276</v>
       </c>
       <c r="AA85" t="s">
-        <v>487</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
@@ -9943,7 +10605,7 @@
         <v>282</v>
       </c>
       <c r="AA86" t="s">
-        <v>142</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87">
@@ -9951,7 +10613,7 @@
         <v>271</v>
       </c>
       <c r="AA87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="88">
@@ -9959,7 +10621,7 @@
         <v>518</v>
       </c>
       <c r="AA88" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89">
@@ -9967,7 +10629,7 @@
         <v>266</v>
       </c>
       <c r="AA89" t="s">
-        <v>488</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90">
@@ -9975,7 +10637,7 @@
         <v>283</v>
       </c>
       <c r="AA90" t="s">
-        <v>558</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91">
@@ -9983,7 +10645,7 @@
         <v>267</v>
       </c>
       <c r="AA91" t="s">
-        <v>196</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92">
@@ -9991,7 +10653,7 @@
         <v>268</v>
       </c>
       <c r="AA92" t="s">
-        <v>445</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
@@ -9999,7 +10661,7 @@
         <v>300</v>
       </c>
       <c r="AA93" t="s">
-        <v>197</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94">
@@ -10007,7 +10669,7 @@
         <v>306</v>
       </c>
       <c r="AA94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95">
@@ -10015,7 +10677,7 @@
         <v>290</v>
       </c>
       <c r="AA95" t="s">
-        <v>536</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96">
@@ -10023,7 +10685,7 @@
         <v>335</v>
       </c>
       <c r="AA96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97">
@@ -10031,7 +10693,7 @@
         <v>272</v>
       </c>
       <c r="AA97" t="s">
-        <v>211</v>
+        <v>537</v>
       </c>
     </row>
     <row r="98">
@@ -10039,236 +10701,241 @@
         <v>273</v>
       </c>
       <c r="AA98" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>433</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>547</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>434</v>
+        <v>548</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>200</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>562</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>204</v>
+        <v>562</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>489</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>145</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>514</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>374</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>563</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>148</v>
+        <v>563</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>564</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>150</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>565</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>156</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>435</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>159</v>
+        <v>589</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>534</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>160</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>566</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>164</v>
+        <v>566</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>166</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -23,7 +23,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -31,7 +31,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -41,22 +41,22 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6420" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7698" uniqueCount="640">
   <si>
     <t>description</t>
   </si>
@@ -1842,6 +1842,156 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1999,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="205" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2936,8 +3086,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="322">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4484,6 +4848,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -7792,7 +8428,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="232">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8357,52 +8993,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="282" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8877,7 +9615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8968,21 +9706,24 @@
         <v>580</v>
       </c>
       <c r="AA1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -9066,21 +9807,24 @@
         <v>584</v>
       </c>
       <c r="AA2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>423</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -9155,21 +9899,24 @@
         <v>585</v>
       </c>
       <c r="AA3" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>356</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -9241,21 +9988,24 @@
         <v>586</v>
       </c>
       <c r="AA4" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB4" t="s">
         <v>545</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9315,21 +10065,24 @@
         <v>351</v>
       </c>
       <c r="AA5" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB5" t="s">
         <v>542</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>567</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>416</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9386,21 +10139,24 @@
         <v>353</v>
       </c>
       <c r="AA6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>436</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>417</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9448,21 +10204,24 @@
         <v>352</v>
       </c>
       <c r="AA7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>437</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>418</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>519</v>
       </c>
     </row>
@@ -9510,21 +10269,24 @@
         <v>354</v>
       </c>
       <c r="AA8" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>419</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>520</v>
       </c>
     </row>
@@ -9569,15 +10331,18 @@
         <v>355</v>
       </c>
       <c r="AA9" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>521</v>
       </c>
     </row>
@@ -9613,15 +10378,18 @@
         <v>397</v>
       </c>
       <c r="AA10" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB10" t="s">
         <v>252</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>568</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9651,15 +10419,18 @@
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>244</v>
+        <v>596</v>
       </c>
       <c r="AA11" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB11" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9689,15 +10460,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA12" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -9727,15 +10501,18 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>560</v>
+        <v>245</v>
       </c>
       <c r="AA13" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB13" t="s">
         <v>321</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -9762,15 +10539,18 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="AA14" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9797,15 +10577,18 @@
         <v>482</v>
       </c>
       <c r="S15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA15" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB15" t="s">
         <v>587</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>492</v>
       </c>
     </row>
@@ -9832,15 +10615,18 @@
         <v>483</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA16" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB16" t="s">
         <v>561</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -9861,15 +10647,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>458</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -9889,10 +10678,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>248</v>
+      </c>
       <c r="AA18" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>466</v>
       </c>
     </row>
@@ -9901,7 +10696,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>590</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -9910,9 +10705,12 @@
         <v>454</v>
       </c>
       <c r="AA19" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB19" t="s">
         <v>484</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>495</v>
       </c>
     </row>
@@ -9921,7 +10719,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>591</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -9930,9 +10728,12 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>496</v>
       </c>
     </row>
@@ -9941,7 +10742,7 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>251</v>
+        <v>592</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -9950,9 +10751,12 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>497</v>
       </c>
     </row>
@@ -9961,7 +10765,7 @@
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>528</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -9970,9 +10774,12 @@
         <v>544</v>
       </c>
       <c r="AA22" t="s">
+        <v>573</v>
+      </c>
+      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -9981,7 +10788,7 @@
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -9990,9 +10797,12 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -10001,7 +10811,7 @@
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>251</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -10010,9 +10820,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB24" t="s">
         <v>485</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>523</v>
       </c>
     </row>
@@ -10021,7 +10834,7 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -10030,9 +10843,12 @@
         <v>383</v>
       </c>
       <c r="AA25" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>524</v>
       </c>
     </row>
@@ -10041,234 +10857,294 @@
         <v>580</v>
       </c>
       <c r="F26" t="s">
-        <v>440</v>
+        <v>528</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="AA26" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB26" t="s">
         <v>532</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>571</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AA27" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AA29" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>407</v>
+        <v>221</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB31" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
       <c r="AA32" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
       <c r="AA33" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>460</v>
       </c>
       <c r="H34" t="s">
         <v>500</v>
       </c>
       <c r="AA34" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
       </c>
       <c r="AA35" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
       </c>
       <c r="AA36" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB36" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
       </c>
       <c r="AA37" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
       </c>
       <c r="AA38" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
         <v>529</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>594</v>
+      </c>
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>384</v>
       </c>
     </row>
@@ -10276,7 +11152,7 @@
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10284,7 +11160,7 @@
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10292,7 +11168,7 @@
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10300,7 +11176,7 @@
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10308,7 +11184,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10316,7 +11192,7 @@
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10324,7 +11200,7 @@
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>588</v>
       </c>
     </row>
@@ -10332,7 +11208,7 @@
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10340,7 +11216,7 @@
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10348,7 +11224,7 @@
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10356,7 +11232,7 @@
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10364,7 +11240,7 @@
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -10372,7 +11248,7 @@
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10380,7 +11256,7 @@
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>486</v>
       </c>
     </row>
@@ -10388,7 +11264,7 @@
       <c r="H59" t="s">
         <v>530</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>455</v>
       </c>
     </row>
@@ -10396,7 +11272,7 @@
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10404,7 +11280,7 @@
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>341</v>
       </c>
     </row>
@@ -10412,7 +11288,7 @@
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10420,7 +11296,7 @@
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10428,7 +11304,7 @@
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10436,7 +11312,7 @@
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10444,7 +11320,7 @@
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10452,7 +11328,7 @@
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10460,7 +11336,7 @@
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10468,7 +11344,7 @@
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10476,7 +11352,7 @@
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>431</v>
       </c>
     </row>
@@ -10484,7 +11360,7 @@
       <c r="H71" t="s">
         <v>516</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10492,7 +11368,7 @@
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -10500,7 +11376,7 @@
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>380</v>
       </c>
     </row>
@@ -10508,7 +11384,7 @@
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>432</v>
       </c>
     </row>
@@ -10516,7 +11392,7 @@
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10524,7 +11400,7 @@
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10532,7 +11408,7 @@
       <c r="H77" t="s">
         <v>501</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10540,7 +11416,7 @@
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10548,395 +11424,425 @@
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="AA79" t="s">
-        <v>193</v>
+      <c r="AB79" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="AA80" t="s">
-        <v>194</v>
+      <c r="AB80" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="AA81" t="s">
-        <v>444</v>
+      <c r="AB81" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AA82" t="s">
-        <v>457</v>
+      <c r="AB82" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="AA83" t="s">
-        <v>139</v>
+      <c r="AB83" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="AA84" t="s">
-        <v>140</v>
+      <c r="AB84" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="AA85" t="s">
-        <v>141</v>
+      <c r="AB85" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="AA86" t="s">
-        <v>487</v>
+      <c r="AB86" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="AA87" t="s">
-        <v>142</v>
+      <c r="AB87" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>518</v>
       </c>
-      <c r="AA88" t="s">
-        <v>143</v>
+      <c r="AB88" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="AA89" t="s">
-        <v>195</v>
+      <c r="AB89" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="AA90" t="s">
-        <v>488</v>
+      <c r="AB90" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="AA91" t="s">
-        <v>558</v>
+      <c r="AB91" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="AA92" t="s">
-        <v>196</v>
+      <c r="AB92" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="AA93" t="s">
-        <v>445</v>
+      <c r="AB93" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="AA94" t="s">
-        <v>197</v>
+      <c r="AB94" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="AA95" t="s">
-        <v>198</v>
+      <c r="AB95" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="AA96" t="s">
-        <v>536</v>
+      <c r="AB96" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="AA97" t="s">
-        <v>537</v>
+      <c r="AB97" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>540</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -23,13 +23,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -48,14 +48,14 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7698" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8300" uniqueCount="642">
   <si>
     <t>description</t>
   </si>
@@ -1992,6 +1992,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2005,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="205" x14ac:knownFonts="1">
+  <fonts count="222" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3300,8 +3306,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="322">
+  <fills count="346">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4848,6 +4961,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -8428,7 +8677,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="249">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9092,55 +9341,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="306" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="309" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9615,7 +9915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9706,24 +10006,21 @@
         <v>580</v>
       </c>
       <c r="AA1" t="s">
-        <v>571</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="AF1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -9756,7 +10053,7 @@
         <v>441</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>641</v>
       </c>
       <c r="K2" t="s">
         <v>578</v>
@@ -9807,24 +10104,21 @@
         <v>584</v>
       </c>
       <c r="AA2" t="s">
-        <v>597</v>
+        <v>94</v>
       </c>
       <c r="AB2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AC2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AE2" t="s">
-        <v>179</v>
+        <v>423</v>
       </c>
       <c r="AF2" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG2" t="s">
         <v>490</v>
       </c>
     </row>
@@ -9854,7 +10148,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>474</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
         <v>344</v>
@@ -9899,24 +10193,21 @@
         <v>585</v>
       </c>
       <c r="AA3" t="s">
-        <v>598</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AC3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
+        <v>356</v>
       </c>
       <c r="AE3" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="AF3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -9943,7 +10234,7 @@
         <v>442</v>
       </c>
       <c r="J4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K4" t="s">
         <v>345</v>
@@ -9988,24 +10279,21 @@
         <v>586</v>
       </c>
       <c r="AA4" t="s">
-        <v>599</v>
+        <v>545</v>
       </c>
       <c r="AB4" t="s">
-        <v>545</v>
+        <v>169</v>
       </c>
       <c r="AC4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AE4" t="s">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="AF4" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -10032,7 +10320,7 @@
         <v>451</v>
       </c>
       <c r="J5" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="K5" t="s">
         <v>346</v>
@@ -10065,24 +10353,21 @@
         <v>351</v>
       </c>
       <c r="AA5" t="s">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="AB5" t="s">
-        <v>542</v>
+        <v>170</v>
       </c>
       <c r="AC5" t="s">
-        <v>170</v>
+        <v>567</v>
       </c>
       <c r="AD5" t="s">
-        <v>567</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="AF5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -10109,7 +10394,7 @@
         <v>439</v>
       </c>
       <c r="J6" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="K6" t="s">
         <v>579</v>
@@ -10139,24 +10424,21 @@
         <v>353</v>
       </c>
       <c r="AA6" t="s">
-        <v>601</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>436</v>
       </c>
       <c r="AC6" t="s">
-        <v>436</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AE6" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="AF6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10176,6 +10458,9 @@
       <c r="I7" t="s">
         <v>438</v>
       </c>
+      <c r="J7" t="s">
+        <v>549</v>
+      </c>
       <c r="K7" t="s">
         <v>343</v>
       </c>
@@ -10204,24 +10489,21 @@
         <v>352</v>
       </c>
       <c r="AA7" t="s">
-        <v>602</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="AC7" t="s">
-        <v>437</v>
+        <v>176</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE7" t="s">
-        <v>183</v>
+        <v>418</v>
       </c>
       <c r="AF7" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG7" t="s">
         <v>519</v>
       </c>
     </row>
@@ -10269,24 +10551,21 @@
         <v>354</v>
       </c>
       <c r="AA8" t="s">
-        <v>603</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AC8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE8" t="s">
-        <v>184</v>
+        <v>419</v>
       </c>
       <c r="AF8" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG8" t="s">
         <v>520</v>
       </c>
     </row>
@@ -10331,18 +10610,15 @@
         <v>355</v>
       </c>
       <c r="AA9" t="s">
-        <v>604</v>
-      </c>
-      <c r="AB9" t="s">
         <v>205</v>
       </c>
+      <c r="AC9" t="s">
+        <v>178</v>
+      </c>
       <c r="AD9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>521</v>
       </c>
     </row>
@@ -10378,18 +10654,15 @@
         <v>397</v>
       </c>
       <c r="AA10" t="s">
-        <v>605</v>
-      </c>
-      <c r="AB10" t="s">
         <v>252</v>
       </c>
+      <c r="AC10" t="s">
+        <v>568</v>
+      </c>
       <c r="AD10" t="s">
-        <v>568</v>
-      </c>
-      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -10398,7 +10671,7 @@
         <v>342</v>
       </c>
       <c r="F11" t="s">
-        <v>541</v>
+        <v>640</v>
       </c>
       <c r="H11" t="s">
         <v>347</v>
@@ -10422,15 +10695,12 @@
         <v>596</v>
       </c>
       <c r="AA11" t="s">
-        <v>606</v>
-      </c>
-      <c r="AB11" t="s">
         <v>253</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>254</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -10439,7 +10709,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>314</v>
+        <v>541</v>
       </c>
       <c r="H12" t="s">
         <v>269</v>
@@ -10463,15 +10733,12 @@
         <v>244</v>
       </c>
       <c r="AA12" t="s">
-        <v>607</v>
-      </c>
-      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>187</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10480,7 +10747,7 @@
         <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="H13" t="s">
         <v>258</v>
@@ -10504,15 +10771,12 @@
         <v>245</v>
       </c>
       <c r="AA13" t="s">
-        <v>608</v>
-      </c>
-      <c r="AB13" t="s">
         <v>321</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>188</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>465</v>
       </c>
     </row>
@@ -10521,7 +10785,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="H14" t="s">
         <v>311</v>
@@ -10542,15 +10806,12 @@
         <v>560</v>
       </c>
       <c r="AA14" t="s">
-        <v>609</v>
-      </c>
-      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>189</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10559,7 +10820,7 @@
         <v>498</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>259</v>
@@ -10580,15 +10841,12 @@
         <v>250</v>
       </c>
       <c r="AA15" t="s">
-        <v>610</v>
-      </c>
-      <c r="AB15" t="s">
         <v>587</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>190</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>492</v>
       </c>
     </row>
@@ -10597,7 +10855,7 @@
         <v>468</v>
       </c>
       <c r="F16" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
         <v>260</v>
@@ -10618,15 +10876,12 @@
         <v>246</v>
       </c>
       <c r="AA16" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB16" t="s">
         <v>561</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>191</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>493</v>
       </c>
     </row>
@@ -10635,7 +10890,7 @@
         <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
         <v>312</v>
@@ -10650,15 +10905,12 @@
         <v>247</v>
       </c>
       <c r="AA17" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>458</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>494</v>
       </c>
     </row>
@@ -10667,7 +10919,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
@@ -10682,12 +10934,9 @@
         <v>248</v>
       </c>
       <c r="AA18" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>466</v>
       </c>
     </row>
@@ -10696,7 +10945,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>590</v>
+        <v>406</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -10705,12 +10954,9 @@
         <v>454</v>
       </c>
       <c r="AA19" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB19" t="s">
         <v>484</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>495</v>
       </c>
     </row>
@@ -10719,7 +10965,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H20" t="s">
         <v>291</v>
@@ -10728,12 +10974,9 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>496</v>
       </c>
     </row>
@@ -10742,7 +10985,7 @@
         <v>387</v>
       </c>
       <c r="F21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H21" t="s">
         <v>292</v>
@@ -10751,12 +10994,9 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>497</v>
       </c>
     </row>
@@ -10765,7 +11005,7 @@
         <v>403</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>592</v>
       </c>
       <c r="H22" t="s">
         <v>293</v>
@@ -10774,12 +11014,9 @@
         <v>544</v>
       </c>
       <c r="AA22" t="s">
-        <v>573</v>
-      </c>
-      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10788,7 +11025,7 @@
         <v>404</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" t="s">
         <v>294</v>
@@ -10797,12 +11034,9 @@
         <v>461</v>
       </c>
       <c r="AA23" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>522</v>
       </c>
     </row>
@@ -10811,7 +11045,7 @@
         <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
         <v>285</v>
@@ -10820,12 +11054,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB24" t="s">
         <v>485</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>523</v>
       </c>
     </row>
@@ -10834,7 +11065,7 @@
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>593</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -10843,12 +11074,9 @@
         <v>383</v>
       </c>
       <c r="AA25" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>524</v>
       </c>
     </row>
@@ -10857,7 +11085,7 @@
         <v>580</v>
       </c>
       <c r="F26" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -10866,21 +11094,18 @@
         <v>595</v>
       </c>
       <c r="AA26" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB26" t="s">
         <v>532</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>571</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>528</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
@@ -10889,21 +11114,18 @@
         <v>515</v>
       </c>
       <c r="AA27" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
@@ -10912,18 +11134,15 @@
         <v>83</v>
       </c>
       <c r="AA28" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
@@ -10932,18 +11151,15 @@
         <v>425</v>
       </c>
       <c r="AA29" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>440</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
@@ -10952,18 +11168,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>405</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>440</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -10972,187 +11185,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB31" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>405</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
       <c r="AA32" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
       <c r="F33" t="s">
-        <v>459</v>
+        <v>222</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
       <c r="AA33" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H34" t="s">
         <v>500</v>
       </c>
       <c r="AA34" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
       </c>
       <c r="AA35" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
       </c>
       <c r="AA36" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB36" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
       </c>
       <c r="AA37" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
       </c>
       <c r="AA38" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
         <v>529</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>594</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>594</v>
+      </c>
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>118</v>
       </c>
     </row>
@@ -11160,7 +11349,7 @@
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>119</v>
       </c>
     </row>
@@ -11168,7 +11357,7 @@
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11176,7 +11365,7 @@
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11184,7 +11373,7 @@
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>122</v>
       </c>
     </row>
@@ -11192,7 +11381,7 @@
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11200,7 +11389,7 @@
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>588</v>
       </c>
     </row>
@@ -11208,7 +11397,7 @@
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11216,7 +11405,7 @@
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11224,7 +11413,7 @@
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11232,7 +11421,7 @@
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>124</v>
       </c>
     </row>
@@ -11240,7 +11429,7 @@
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>125</v>
       </c>
     </row>
@@ -11248,7 +11437,7 @@
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>126</v>
       </c>
     </row>
@@ -11256,7 +11445,7 @@
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>486</v>
       </c>
     </row>
@@ -11264,7 +11453,7 @@
       <c r="H59" t="s">
         <v>530</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>455</v>
       </c>
     </row>
@@ -11272,7 +11461,7 @@
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11280,7 +11469,7 @@
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>341</v>
       </c>
     </row>
@@ -11288,7 +11477,7 @@
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>456</v>
       </c>
     </row>
@@ -11296,7 +11485,7 @@
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>128</v>
       </c>
     </row>
@@ -11304,7 +11493,7 @@
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>129</v>
       </c>
     </row>
@@ -11312,7 +11501,7 @@
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>130</v>
       </c>
     </row>
@@ -11320,7 +11509,7 @@
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11328,7 +11517,7 @@
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11336,7 +11525,7 @@
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>133</v>
       </c>
     </row>
@@ -11344,7 +11533,7 @@
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>134</v>
       </c>
     </row>
@@ -11352,7 +11541,7 @@
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>431</v>
       </c>
     </row>
@@ -11360,7 +11549,7 @@
       <c r="H71" t="s">
         <v>516</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>464</v>
       </c>
     </row>
@@ -11368,7 +11557,7 @@
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11376,7 +11565,7 @@
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>380</v>
       </c>
     </row>
@@ -11384,7 +11573,7 @@
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>432</v>
       </c>
     </row>
@@ -11392,7 +11581,7 @@
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11400,7 +11589,7 @@
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11408,7 +11597,7 @@
       <c r="H77" t="s">
         <v>501</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11416,7 +11605,7 @@
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>138</v>
       </c>
     </row>
@@ -11424,7 +11613,7 @@
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>632</v>
       </c>
     </row>
@@ -11432,7 +11621,7 @@
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>193</v>
       </c>
     </row>
@@ -11440,7 +11629,7 @@
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>194</v>
       </c>
     </row>
@@ -11448,7 +11637,7 @@
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>444</v>
       </c>
     </row>
@@ -11456,7 +11645,7 @@
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>457</v>
       </c>
     </row>
@@ -11464,7 +11653,7 @@
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11472,7 +11661,7 @@
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>140</v>
       </c>
     </row>
@@ -11480,7 +11669,7 @@
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>141</v>
       </c>
     </row>
@@ -11488,7 +11677,7 @@
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>487</v>
       </c>
     </row>
@@ -11496,7 +11685,7 @@
       <c r="H88" t="s">
         <v>518</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11504,7 +11693,7 @@
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>143</v>
       </c>
     </row>
@@ -11512,7 +11701,7 @@
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>195</v>
       </c>
     </row>
@@ -11520,7 +11709,7 @@
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>488</v>
       </c>
     </row>
@@ -11528,7 +11717,7 @@
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>558</v>
       </c>
     </row>
@@ -11536,7 +11725,7 @@
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>196</v>
       </c>
     </row>
@@ -11544,7 +11733,7 @@
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>445</v>
       </c>
     </row>
@@ -11552,7 +11741,7 @@
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>197</v>
       </c>
     </row>
@@ -11560,7 +11749,7 @@
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11568,7 +11757,7 @@
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>536</v>
       </c>
     </row>
@@ -11576,272 +11765,272 @@
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>639</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8300" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="642">
   <si>
     <t>description</t>
   </si>
@@ -2005,7 +2005,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="222" x14ac:knownFonts="1">
+  <fonts count="256" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3413,8 +3413,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="346">
+  <fills count="394">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4961,6 +5175,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -8677,7 +9163,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="283">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9392,55 +9878,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="345" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="224" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="225" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="360" fontId="228" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="372" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_bad_script.xlsx
@@ -31,12 +31,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9504" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10715" uniqueCount="647">
   <si>
     <t>description</t>
   </si>
@@ -1998,6 +1998,21 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2005,7 +2020,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="256" x14ac:knownFonts="1">
+  <fonts count="290" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3627,8 +3642,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="394">
+  <fills count="442">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5175,6 +5404,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -9163,7 +9664,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="317">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9980,55 +10481,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="372" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="372" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="375" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="375" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="242" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="384" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="245" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="387" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="390" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="256" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="258" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="259" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="261" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="262" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10662,7 +11265,7 @@
         <v>479</v>
       </c>
       <c r="Q2" t="s">
-        <v>408</v>
+        <v>643</v>
       </c>
       <c r="R2" t="s">
         <v>421</v>
@@ -10756,6 +11359,9 @@
       <c r="P3" t="s">
         <v>480</v>
       </c>
+      <c r="Q3" t="s">
+        <v>644</v>
+      </c>
       <c r="R3" t="s">
         <v>422</v>
       </c>
@@ -10842,6 +11448,9 @@
       <c r="P4" t="s">
         <v>481</v>
       </c>
+      <c r="Q4" t="s">
+        <v>645</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -11053,7 +11662,7 @@
         <v>343</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>642</v>
       </c>
       <c r="N7" t="s">
         <v>310</v>
@@ -11115,7 +11724,7 @@
         <v>525</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -11174,7 +11783,7 @@
         <v>324</v>
       </c>
       <c r="L9" t="s">
-        <v>476</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -11224,7 +11833,7 @@
         <v>569</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -11268,7 +11877,7 @@
         <v>570</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
         <v>462</v>
@@ -11306,7 +11915,7 @@
         <v>443</v>
       </c>
       <c r="L12" t="s">
-        <v>477</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>527</v>
@@ -11344,7 +11953,7 @@
         <v>317</v>
       </c>
       <c r="L13" t="s">
-        <v>381</v>
+        <v>477</v>
       </c>
       <c r="N13" t="s">
         <v>427</v>
@@ -11382,7 +11991,7 @@
         <v>318</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>381</v>
       </c>
       <c r="N14" t="s">
         <v>463</v>
@@ -11417,7 +12026,7 @@
         <v>319</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -11452,7 +12061,7 @@
         <v>320</v>
       </c>
       <c r="L16" t="s">
-        <v>478</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>531</v>
@@ -11484,7 +12093,7 @@
         <v>312</v>
       </c>
       <c r="L17" t="s">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -11513,7 +12122,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -11539,7 +12148,7 @@
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s">
         <v>484</v>
@@ -11559,7 +12168,7 @@
         <v>291</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>454</v>
       </c>
       <c r="AA20" t="s">
         <v>102</v>
@@ -11579,7 +12188,7 @@
         <v>292</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s">
         <v>103</v>
@@ -11599,7 +12208,7 @@
         <v>293</v>
       </c>
       <c r="L22" t="s">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s">
         <v>104</v>
@@ -11619,7 +12228,7 @@
         <v>294</v>
       </c>
       <c r="L23" t="s">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="AA23" t="s">
         <v>105</v>
@@ -11639,7 +12248,7 @@
         <v>285</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>461</v>
       </c>
       <c r="AA24" t="s">
         <v>485</v>
@@ -11659,7 +12268,7 @@
         <v>274</v>
       </c>
       <c r="L25" t="s">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>106</v>
@@ -11679,7 +12288,7 @@
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>595</v>
+        <v>383</v>
       </c>
       <c r="AA26" t="s">
         <v>532</v>
@@ -11699,7 +12308,7 @@
         <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
       <c r="AA27" t="s">
         <v>107</v>
@@ -11719,7 +12328,7 @@
         <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>83</v>
+        <v>515</v>
       </c>
       <c r="AA28" t="s">
         <v>108</v>
@@ -11736,7 +12345,7 @@
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AA29" t="s">
         <v>109</v>
@@ -11753,7 +12362,7 @@
         <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AA30" t="s">
         <v>110</v>
@@ -11770,7 +12379,7 @@
         <v>212</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>322</v>
@@ -11785,6 +12394,9 @@
       </c>
       <c r="H32" t="s">
         <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>111</v>
@@ -18071,7 +18683,7 @@
     </row>
     <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>555</v>
+        <v>646</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>557</v>
